--- a/Data_frame/balancos_definitivos/PGMN3.xlsx
+++ b/Data_frame/balancos_definitivos/PGMN3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA80"/>
+  <dimension ref="A1:AC80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,16 @@
           <t>31/12/2023</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -654,6 +664,12 @@
       <c r="AA2" t="n">
         <v>8988598.272</v>
       </c>
+      <c r="AB2" t="n">
+        <v>8767729.664000001</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8583604.223999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -739,6 +755,12 @@
       <c r="AA3" t="n">
         <v>4493557.248</v>
       </c>
+      <c r="AB3" t="n">
+        <v>4272453.888</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4191468.032</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -824,6 +846,12 @@
       <c r="AA4" t="n">
         <v>438500</v>
       </c>
+      <c r="AB4" t="n">
+        <v>232516</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>108208</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -909,6 +937,12 @@
       <c r="AA5" t="n">
         <v>4808</v>
       </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -994,6 +1028,12 @@
       <c r="AA6" t="n">
         <v>780977.9840000001</v>
       </c>
+      <c r="AB6" t="n">
+        <v>882542.976</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1052702.016</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1079,6 +1119,12 @@
       <c r="AA7" t="n">
         <v>3029711.872</v>
       </c>
+      <c r="AB7" t="n">
+        <v>2886881.024</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2798281.984</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1164,6 +1210,12 @@
       <c r="AA8" t="n">
         <v>0</v>
       </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1249,6 +1301,12 @@
       <c r="AA9" t="n">
         <v>239559.008</v>
       </c>
+      <c r="AB9" t="n">
+        <v>270513.984</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>232276</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1334,6 +1392,12 @@
       <c r="AA10" t="n">
         <v>0</v>
       </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1419,6 +1483,12 @@
       <c r="AA11" t="n">
         <v>0</v>
       </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1504,6 +1574,12 @@
       <c r="AA12" t="n">
         <v>1358923.008</v>
       </c>
+      <c r="AB12" t="n">
+        <v>1388571.008</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1373102.976</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1589,6 +1665,12 @@
       <c r="AA13" t="n">
         <v>0</v>
       </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1674,6 +1756,12 @@
       <c r="AA14" t="n">
         <v>0</v>
       </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1759,6 +1847,12 @@
       <c r="AA15" t="n">
         <v>777</v>
       </c>
+      <c r="AB15" t="n">
+        <v>793</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1844,6 +1938,12 @@
       <c r="AA16" t="n">
         <v>0</v>
       </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1929,6 +2029,12 @@
       <c r="AA17" t="n">
         <v>0</v>
       </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2014,6 +2120,12 @@
       <c r="AA18" t="n">
         <v>0</v>
       </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2099,6 +2211,12 @@
       <c r="AA19" t="n">
         <v>522318.016</v>
       </c>
+      <c r="AB19" t="n">
+        <v>556846.976</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>564350.0159999999</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2184,6 +2302,12 @@
       <c r="AA20" t="n">
         <v>0</v>
       </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2269,6 +2393,12 @@
       <c r="AA21" t="n">
         <v>0</v>
       </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2354,6 +2484,12 @@
       <c r="AA22" t="n">
         <v>79995</v>
       </c>
+      <c r="AB22" t="n">
+        <v>78952</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>80446</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2439,6 +2575,12 @@
       <c r="AA23" t="n">
         <v>949596.992</v>
       </c>
+      <c r="AB23" t="n">
+        <v>920848</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>914363.008</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2524,6 +2666,12 @@
       <c r="AA24" t="n">
         <v>2106525.952</v>
       </c>
+      <c r="AB24" t="n">
+        <v>2106904.96</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2024224</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2609,6 +2757,12 @@
       <c r="AA25" t="n">
         <v>0</v>
       </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2694,6 +2848,12 @@
       <c r="AA26" t="n">
         <v>8988598.272</v>
       </c>
+      <c r="AB26" t="n">
+        <v>8767729.664000001</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8583604.223999999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2779,6 +2939,12 @@
       <c r="AA27" t="n">
         <v>3242528</v>
       </c>
+      <c r="AB27" t="n">
+        <v>3088506.88</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>2811239.936</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2864,6 +3030,12 @@
       <c r="AA28" t="n">
         <v>163580.992</v>
       </c>
+      <c r="AB28" t="n">
+        <v>194592</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>224288.992</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2949,6 +3121,12 @@
       <c r="AA29" t="n">
         <v>1936164.992</v>
       </c>
+      <c r="AB29" t="n">
+        <v>1749330.944</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1775297.024</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3034,6 +3212,12 @@
       <c r="AA30" t="n">
         <v>111180</v>
       </c>
+      <c r="AB30" t="n">
+        <v>118181</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>52756</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3119,6 +3303,12 @@
       <c r="AA31" t="n">
         <v>430286.016</v>
       </c>
+      <c r="AB31" t="n">
+        <v>415936</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>138731.008</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3204,6 +3394,12 @@
       <c r="AA32" t="n">
         <v>0</v>
       </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3289,6 +3485,12 @@
       <c r="AA33" t="n">
         <v>0</v>
       </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3374,6 +3576,12 @@
       <c r="AA34" t="n">
         <v>601315.968</v>
       </c>
+      <c r="AB34" t="n">
+        <v>610467.008</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>620166.976</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3459,6 +3667,12 @@
       <c r="AA35" t="n">
         <v>0</v>
       </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3544,6 +3758,12 @@
       <c r="AA36" t="n">
         <v>0</v>
       </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3629,6 +3849,12 @@
       <c r="AA37" t="n">
         <v>3085563.904</v>
       </c>
+      <c r="AB37" t="n">
+        <v>3069853.952</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>3127474.944</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3714,6 +3940,12 @@
       <c r="AA38" t="n">
         <v>1205138.944</v>
       </c>
+      <c r="AB38" t="n">
+        <v>1178370.944</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1330660.992</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3799,6 +4031,12 @@
       <c r="AA39" t="n">
         <v>0</v>
       </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3884,6 +4122,12 @@
       <c r="AA40" t="n">
         <v>1801336.064</v>
       </c>
+      <c r="AB40" t="n">
+        <v>1813730.944</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1731090.048</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3969,6 +4213,12 @@
       <c r="AA41" t="n">
         <v>0</v>
       </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4054,6 +4304,12 @@
       <c r="AA42" t="n">
         <v>0</v>
       </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4139,6 +4395,12 @@
       <c r="AA43" t="n">
         <v>79089</v>
       </c>
+      <c r="AB43" t="n">
+        <v>77752</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>65724</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4224,6 +4486,12 @@
       <c r="AA44" t="n">
         <v>0</v>
       </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4309,6 +4577,12 @@
       <c r="AA45" t="n">
         <v>0</v>
       </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4394,6 +4668,12 @@
       <c r="AA46" t="n">
         <v>7517</v>
       </c>
+      <c r="AB46" t="n">
+        <v>7420</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>7337</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4479,6 +4759,12 @@
       <c r="AA47" t="n">
         <v>2652989.112</v>
       </c>
+      <c r="AB47" t="n">
+        <v>2601949.088</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>2637552.088</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4564,6 +4850,12 @@
       <c r="AA48" t="n">
         <v>1604848</v>
       </c>
+      <c r="AB48" t="n">
+        <v>1721858.048</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1721858.048</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4649,6 +4941,12 @@
       <c r="AA49" t="n">
         <v>366612</v>
       </c>
+      <c r="AB49" t="n">
+        <v>379620</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>383127.008</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4734,6 +5032,12 @@
       <c r="AA50" t="n">
         <v>0</v>
       </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4819,6 +5123,12 @@
       <c r="AA51" t="n">
         <v>681529.024</v>
       </c>
+      <c r="AB51" t="n">
+        <v>537347.008</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>536828.992</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4904,6 +5214,12 @@
       <c r="AA52" t="n">
         <v>0</v>
       </c>
+      <c r="AB52" t="n">
+        <v>-36876</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-4262</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4989,6 +5305,12 @@
       <c r="AA53" t="n">
         <v>0</v>
       </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5074,6 +5396,12 @@
       <c r="AA54" t="n">
         <v>0</v>
       </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5159,6 +5487,12 @@
       <c r="AA55" t="n">
         <v>0</v>
       </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5242,6 +5576,12 @@
         <v>0</v>
       </c>
       <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5277,6 +5617,8 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5310,6 +5652,8 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5395,6 +5739,12 @@
       <c r="AA59" t="n">
         <v>2865556.736</v>
       </c>
+      <c r="AB59" t="n">
+        <v>2882500.096</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>3138831.104</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5480,6 +5830,12 @@
       <c r="AA60" t="n">
         <v>-1972183.296</v>
       </c>
+      <c r="AB60" t="n">
+        <v>-1978946.944</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-2115639.04</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5565,6 +5921,12 @@
       <c r="AA61" t="n">
         <v>893374.0159999999</v>
       </c>
+      <c r="AB61" t="n">
+        <v>903553.024</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1023192</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5650,6 +6012,12 @@
       <c r="AA62" t="n">
         <v>-700657.92</v>
       </c>
+      <c r="AB62" t="n">
+        <v>-728540.992</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-764489.024</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5735,6 +6103,12 @@
       <c r="AA63" t="n">
         <v>-78634.016</v>
       </c>
+      <c r="AB63" t="n">
+        <v>-90555</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-94231</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5820,6 +6194,12 @@
       <c r="AA64" t="n">
         <v>0</v>
       </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5905,6 +6285,12 @@
       <c r="AA65" t="n">
         <v>24109</v>
       </c>
+      <c r="AB65" t="n">
+        <v>579</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>652</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5990,6 +6376,12 @@
       <c r="AA66" t="n">
         <v>-631</v>
       </c>
+      <c r="AB66" t="n">
+        <v>-1030</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-232</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6075,6 +6467,12 @@
       <c r="AA67" t="n">
         <v>1485</v>
       </c>
+      <c r="AB67" t="n">
+        <v>1778</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1493</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6160,6 +6558,12 @@
       <c r="AA68" t="n">
         <v>-164993.056</v>
       </c>
+      <c r="AB68" t="n">
+        <v>-157286</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>-141356.992</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6245,6 +6649,12 @@
       <c r="AA69" t="n">
         <v>26666</v>
       </c>
+      <c r="AB69" t="n">
+        <v>13429</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>58415</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6329,6 +6739,12 @@
       </c>
       <c r="AA70" t="n">
         <v>-191658.992</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>-170715.008</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>-199772</v>
       </c>
     </row>
     <row r="71">
@@ -6363,6 +6779,8 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6396,6 +6814,8 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6429,6 +6849,8 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6514,6 +6936,12 @@
       <c r="AA74" t="n">
         <v>-25948.008</v>
       </c>
+      <c r="AB74" t="n">
+        <v>-71502</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>25028</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6599,6 +7027,12 @@
       <c r="AA75" t="n">
         <v>0</v>
       </c>
+      <c r="AB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6683,6 +7117,12 @@
       </c>
       <c r="AA76" t="n">
         <v>152714.016</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>34529</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>7503</v>
       </c>
     </row>
     <row r="77">
@@ -6717,6 +7157,8 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6750,6 +7192,8 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6795,6 +7239,12 @@
       <c r="AA79" t="n">
         <v>-2751</v>
       </c>
+      <c r="AB79" t="n">
+        <v>97</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6879,6 +7329,12 @@
       </c>
       <c r="AA80" t="n">
         <v>124015</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>-36876</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>32614</v>
       </c>
     </row>
   </sheetData>
